--- a/benchmark/multiply_1000_by_1000_matrices.xlsx
+++ b/benchmark/multiply_1000_by_1000_matrices.xlsx
@@ -447,7 +447,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/benchmark/multiply_1000_by_1000_matrices.xlsx
+++ b/benchmark/multiply_1000_by_1000_matrices.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Time (s)</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>SEM (s)</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>Git  commit</t>
+  </si>
+  <si>
+    <t>b6030cf</t>
   </si>
 </sst>
 </file>
@@ -92,13 +101,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,66 +453,140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B3" s="3">
         <v>8.7499400000000005</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="4">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
         <v>8.7973999999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="4">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
         <v>8.8528000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="4">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
         <v>8.8280499999999993</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="4">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="3">
         <v>8.7956400000000006</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
-        <f>AVERAGE(B2:B6)</f>
+      <c r="B9" s="3">
+        <f>AVERAGE(B3:B7)</f>
         <v>8.804765999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4">
-        <f>_xlfn.STDEV.S(B2:B6)/SQRT(COUNT(B2:B6))</f>
+      <c r="B10" s="3">
+        <f>_xlfn.STDEV.S(B3:B7)/SQRT(COUNT(B3:B7))</f>
         <v>1.7310173193818609E-2</v>
       </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/benchmark/multiply_1000_by_1000_matrices.xlsx
+++ b/benchmark/multiply_1000_by_1000_matrices.xlsx
@@ -456,7 +456,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/benchmark/multiply_1000_by_1000_matrices.xlsx
+++ b/benchmark/multiply_1000_by_1000_matrices.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Time (s)</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>b6030cf</t>
+  </si>
+  <si>
+    <t>BLAS</t>
   </si>
 </sst>
 </file>
@@ -96,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -107,6 +110,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,26 +465,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -480,14 +502,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3">
         <v>8.7499400000000005</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3">
+        <v>0.18425800000000001</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -495,11 +519,13 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>8.7973999999999997</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3">
+        <v>0.129111</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -507,11 +533,13 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>8.8528000000000002</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>0.15696099999999999</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -519,11 +547,13 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>8.8280499999999993</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3">
+        <v>0.20074700000000001</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -531,11 +561,13 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <v>8.7956400000000006</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3">
+        <v>0.16387299999999999</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -543,7 +575,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -553,7 +585,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -561,7 +593,10 @@
         <f>AVERAGE(B3:B7)</f>
         <v>8.804765999999999</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3">
+        <f>AVERAGE(C3:C7)</f>
+        <v>0.16699000000000003</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -569,7 +604,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -577,7 +612,10 @@
         <f>_xlfn.STDEV.S(B3:B7)/SQRT(COUNT(B3:B7))</f>
         <v>1.7310173193818609E-2</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3">
+        <f>_xlfn.STDEV.S(C3:C7)/SQRT(COUNT(C3:C7))</f>
+        <v>1.2212358584646865E-2</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>

--- a/benchmark/multiply_1000_by_1000_matrices.xlsx
+++ b/benchmark/multiply_1000_by_1000_matrices.xlsx
@@ -465,10 +465,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,14 +476,14 @@
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="6"/>
@@ -492,9 +492,8 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -502,7 +501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -510,72 +509,67 @@
         <v>8.7499400000000005</v>
       </c>
       <c r="C3" s="3">
-        <v>0.18425800000000001</v>
+        <v>0.18876299999999999</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="3">
         <v>8.7973999999999997</v>
       </c>
       <c r="C4" s="3">
-        <v>0.129111</v>
+        <v>0.15193000000000001</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>8.8528000000000002</v>
       </c>
       <c r="C5" s="3">
-        <v>0.15696099999999999</v>
+        <v>0.16008</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
         <v>8.8280499999999993</v>
       </c>
       <c r="C6" s="3">
-        <v>0.20074700000000001</v>
+        <v>0.16067200000000001</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <v>8.7956400000000006</v>
       </c>
       <c r="C7" s="3">
-        <v>0.16387299999999999</v>
+        <v>0.153695</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -583,9 +577,8 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -595,16 +588,15 @@
       </c>
       <c r="C9" s="3">
         <f>AVERAGE(C3:C7)</f>
-        <v>0.16699000000000003</v>
+        <v>0.16302800000000001</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -614,14 +606,13 @@
       </c>
       <c r="C10" s="3">
         <f>_xlfn.STDEV.S(C3:C7)/SQRT(COUNT(C3:C7))</f>
-        <v>1.2212358584646865E-2</v>
+        <v>6.6588368278551434E-3</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/benchmark/multiply_1000_by_1000_matrices.xlsx
+++ b/benchmark/multiply_1000_by_1000_matrices.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Time (s)</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>BLAS</t>
+  </si>
+  <si>
+    <t>4933ac9</t>
   </si>
 </sst>
 </file>
@@ -465,10 +468,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,6 +503,9 @@
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -614,6 +620,12 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <f>B9/0.16</f>
+        <v>55.029787499999991</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/benchmark/multiply_1000_by_1000_matrices.xlsx
+++ b/benchmark/multiply_1000_by_1000_matrices.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Time (s)</t>
   </si>
@@ -46,25 +46,40 @@
     <t>SEM (s)</t>
   </si>
   <si>
-    <t>Initial</t>
-  </si>
-  <si>
     <t>Git  commit</t>
   </si>
   <si>
     <t>b6030cf</t>
   </si>
   <si>
-    <t>BLAS</t>
-  </si>
-  <si>
     <t>4933ac9</t>
+  </si>
+  <si>
+    <t>C, three loops</t>
+  </si>
+  <si>
+    <t>C, OpenBLAS</t>
+  </si>
+  <si>
+    <t>Python, three loops</t>
+  </si>
+  <si>
+    <t>Python benchmark: https://github.com/evgenyneu/python_matrix_multiply_benchmark</t>
+  </si>
+  <si>
+    <t>C benchmark: https://github.com/evgenyneu/image_compressor_c</t>
+  </si>
+  <si>
+    <t>Python, with NumPy (np.matmul)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -102,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -123,6 +138,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView zoomScale="162" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,6 +477,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -471,26 +497,30 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -498,13 +528,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -517,8 +547,12 @@
       <c r="C3" s="3">
         <v>0.18876299999999999</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="3">
+        <v>261.28300000000002</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.12813930000000001</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -530,8 +564,12 @@
       <c r="C4" s="3">
         <v>0.15193000000000001</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="3">
+        <v>233.3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.130936</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -543,8 +581,12 @@
       <c r="C5" s="3">
         <v>0.16008</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="D5" s="3">
+        <v>245.81100000000001</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.18187500000000001</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -556,8 +598,12 @@
       <c r="C6" s="3">
         <v>0.16067200000000001</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="D6" s="3">
+        <v>258.57600000000002</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.124518</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -569,8 +615,12 @@
       <c r="C7" s="3">
         <v>0.153695</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="3">
+        <v>260.30279999999999</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.13094790000000001</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -596,8 +646,14 @@
         <f>AVERAGE(C3:C7)</f>
         <v>0.16302800000000001</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="3">
+        <f>AVERAGE(D3:D7)</f>
+        <v>251.85455999999999</v>
+      </c>
+      <c r="E9" s="3">
+        <f>AVERAGE(E3:E7)</f>
+        <v>0.13928324</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -614,8 +670,14 @@
         <f>_xlfn.STDEV.S(C3:C7)/SQRT(COUNT(C3:C7))</f>
         <v>6.6588368278551434E-3</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="3">
+        <f>_xlfn.STDEV.S(D3:D7)/SQRT(COUNT(D3:D7))</f>
+        <v>5.4140664470987057</v>
+      </c>
+      <c r="E10" s="3">
+        <f>_xlfn.STDEV.S(E3:E7)/SQRT(COUNT(E3:E7))</f>
+        <v>1.0713104217293911E-2</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
